--- a/vf/pricelist2.xlsx
+++ b/vf/pricelist2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEEVIKA P\Downloads\vf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6010313-99B4-4975-9738-5A2E86C55062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00491B06-6810-429F-93D9-525C40D9AA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C19C32B-33D7-40B6-B791-77F9CA5843D3}"/>
   </bookViews>
@@ -572,9 +572,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
     <t>pear</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>banana</t>
+  </si>
+  <si>
+    <t>apple</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="C3">
         <v>145</v>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>220</v>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5">
         <v>120</v>
@@ -1160,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8">
         <v>170</v>
@@ -1193,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <v>65</v>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10">
         <v>140</v>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1226,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12">
         <v>55</v>
@@ -1237,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13">
         <v>58</v>
@@ -1248,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14">
         <v>48</v>
@@ -1259,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15">
         <v>35</v>
@@ -1270,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -1281,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1292,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>43</v>
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20">
         <v>70</v>
@@ -1325,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22">
         <v>110</v>
@@ -1347,7 +1347,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -1358,7 +1358,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>135</v>
@@ -1369,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -1380,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26">
         <v>60</v>
@@ -1391,7 +1391,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27">
         <v>190</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28">
         <v>105</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29">
         <v>135</v>
@@ -1424,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30">
         <v>135</v>
@@ -1435,7 +1435,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31">
         <v>60</v>
@@ -1446,7 +1446,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32">
         <v>84</v>
@@ -1457,7 +1457,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33">
         <v>35</v>
@@ -1468,7 +1468,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34">
         <v>190</v>
@@ -1479,7 +1479,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35">
         <v>180</v>
@@ -1490,7 +1490,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36">
         <v>168</v>
@@ -1501,7 +1501,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37">
         <v>40</v>
